--- a/tests/testthat/xlsx_files/cars_no_titles.xlsx
+++ b/tests/testthat/xlsx_files/cars_no_titles.xlsx
@@ -139,10 +139,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,27 +447,27 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>

--- a/tests/testthat/xlsx_files/cars_no_titles.xlsx
+++ b/tests/testthat/xlsx_files/cars_no_titles.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BasicTable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/tests/testthat/xlsx_files/cars_no_titles.xlsx
+++ b/tests/testthat/xlsx_files/cars_no_titles.xlsx
@@ -42,9 +42,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
+  <numFmts count="5">
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -58,12 +61,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -126,23 +129,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,27 +440,27 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -468,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -486,102 +489,102 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="n">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="n">
         <v>2.14</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="11" t="n">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>81.8</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>21.8723569831877</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="5" t="n">
         <v>2.3003</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>0.598207331208095</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>131.666666666667</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>37.5277674973257</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="5" t="n">
         <v>2.755</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>0.128160056179763</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>115.25</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>9.17877987534291</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="5" t="n">
         <v>3.38875</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="6" t="n">
         <v>0.116216392991695</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="11" t="n">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>209.214285714286</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>50.9768855182705</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="5" t="n">
         <v>3.99921428571429</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="6" t="n">
         <v>0.759404744476927</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
